--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3330607.791637433</v>
+        <v>3328355.711926225</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101256.695209511</v>
+        <v>8101256.69520951</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F2" t="n">
-        <v>129.619402061387</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>106.2755841489819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.32812427081615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.80347273218078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>336.8682609925655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065922</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893701</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763411</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.3870054807226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>110.1444095748051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835253</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.147705894842</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.882007288091</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898469</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136267</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875187</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899375</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686069</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064744</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>879.9099329995263</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242374</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995263</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995263</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.9099329995263</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,58 +4541,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533246</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.4685272225361</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.4685272225361</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473114</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>578.5476590249497</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1920.063992790046</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7415,19 +7415,19 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7500,16 +7500,16 @@
         <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.133395328884992e-14</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-3.735967585619944e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431578</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187121</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717391</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,7 +26451,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483642999</v>
+        <v>-789315.0483642998</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632936</v>
+        <v>539429.6973632926</v>
       </c>
       <c r="D6" t="n">
         <v>539429.6973632924</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.027907925</v>
+        <v>287475.2899824887</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152799</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898451</v>
       </c>
       <c r="J6" t="n">
-        <v>395391.2873180025</v>
+        <v>395356.5493925667</v>
       </c>
       <c r="K6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898447</v>
       </c>
       <c r="L6" t="n">
-        <v>612922.4897152802</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="M6" t="n">
-        <v>527867.4617797682</v>
+        <v>527832.7238543328</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898445</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F2" t="n">
-        <v>277.2566436803244</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60.97123694964597</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>335.9098143852374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.781180619914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>45.06210907969631</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468613</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.7078566989486</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.55346140669325e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4469701760392</v>
+        <v>402.2342772868834</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7871425275306</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>397.6543049213403</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3420541567482</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>744.7005224868046</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34366,13 +34366,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>414.644818552487</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>101.892590396165</v>
+        <v>263.6798975070092</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>263.67989750701</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3588104034714</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38102,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>272.5107846304687</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
